--- a/Improgress/2. Artifact and Deliverable/Test case/module2/K22T1_TeamBDS_ TC_XemDSduanbds(Web)_ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Test case/module2/K22T1_TeamBDS_ TC_XemDSduanbds(Web)_ver1.0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Test case\module2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA2E4D9-C184-4D49-BE89-C768B2C061F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1371D7ED-33AF-46C3-A8A8-99DE180EC31E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{DC4DB269-603C-4B5B-A498-B166C8A18B92}"/>
   </bookViews>
@@ -1134,6 +1134,45 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1158,27 +1197,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1239,6 +1257,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1279,33 +1306,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1647,31 +1647,31 @@
   <sheetData>
     <row r="1" spans="2:5" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
     </row>
     <row r="3" spans="2:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
     </row>
     <row r="5" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="50"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="63"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
@@ -1746,21 +1746,21 @@
       <c r="E11" s="8"/>
     </row>
     <row r="12" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="53"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="66"/>
     </row>
     <row r="13" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="50"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="63"/>
     </row>
     <row r="15" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="20" t="s">
@@ -1769,54 +1769,54 @@
       <c r="C15" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="58" t="s">
+      <c r="D15" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="59"/>
+      <c r="E15" s="57"/>
     </row>
     <row r="16" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="61"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="59"/>
     </row>
     <row r="17" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="61"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
     </row>
     <row r="18" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="61"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="59"/>
     </row>
     <row r="19" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="61"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
     </row>
     <row r="20" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="55"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="57"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B14:E14"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1861,80 +1861,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="72" t="s">
+      <c r="B2" s="77"/>
+      <c r="C2" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="73"/>
+      <c r="D2" s="79"/>
       <c r="E2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="72" t="s">
+      <c r="F2" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="74"/>
-      <c r="H2" s="75"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="81"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="76" t="s">
+      <c r="A3" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="78" t="s">
+      <c r="B3" s="83"/>
+      <c r="C3" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="79"/>
+      <c r="D3" s="85"/>
       <c r="E3" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="78"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="81"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="87"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="64">
+      <c r="B4" s="69"/>
+      <c r="C4" s="70">
         <v>43567</v>
       </c>
-      <c r="D4" s="65"/>
+      <c r="D4" s="71"/>
       <c r="E4" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="64" t="s">
+      <c r="F4" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="66"/>
-      <c r="H4" s="67"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="73"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
     </row>
     <row r="8" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
@@ -2098,8 +2098,8 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8:D10"/>
+      <pane ySplit="3" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2113,22 +2113,22 @@
     <col min="7" max="7" width="33.85546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="23.42578125" style="1" customWidth="1"/>
     <col min="9" max="9" width="42.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="96"/>
+    <col min="10" max="10" width="9.140625" style="47"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="104" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
     </row>
     <row r="2" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="4"/>
@@ -2162,38 +2162,38 @@
       <c r="I3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="103" t="s">
+      <c r="J3" s="51" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="102"/>
+      <c r="B4" s="103"/>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="50"/>
     </row>
     <row r="5" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="82">
+      <c r="A5" s="91">
         <v>1</v>
       </c>
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="85" t="s">
+      <c r="C5" s="94" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="88" t="s">
+      <c r="D5" s="97" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="91" t="s">
+      <c r="E5" s="100" t="s">
         <v>59</v>
       </c>
       <c r="F5" s="45">
@@ -2203,19 +2203,19 @@
         <v>73</v>
       </c>
       <c r="H5" s="39"/>
-      <c r="I5" s="97" t="s">
+      <c r="I5" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="J5" s="99" t="s">
+      <c r="J5" s="88" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="83"/>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="92"/>
+      <c r="A6" s="92"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="101"/>
       <c r="F6" s="45">
         <v>2</v>
       </c>
@@ -2226,14 +2226,14 @@
       <c r="I6" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="J6" s="100"/>
+      <c r="J6" s="89"/>
     </row>
     <row r="7" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="84"/>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="93"/>
+      <c r="A7" s="93"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="102"/>
       <c r="F7" s="45">
         <v>3</v>
       </c>
@@ -2241,25 +2241,25 @@
         <v>62</v>
       </c>
       <c r="H7" s="32"/>
-      <c r="I7" s="98" t="s">
+      <c r="I7" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="J7" s="101"/>
+      <c r="J7" s="90"/>
     </row>
     <row r="8" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="82">
+      <c r="A8" s="91">
         <v>1</v>
       </c>
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="85" t="s">
+      <c r="C8" s="94" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="88" t="s">
+      <c r="D8" s="97" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="91" t="s">
+      <c r="E8" s="100" t="s">
         <v>59</v>
       </c>
       <c r="F8" s="45">
@@ -2269,19 +2269,19 @@
         <v>73</v>
       </c>
       <c r="H8" s="39"/>
-      <c r="I8" s="97" t="s">
+      <c r="I8" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="J8" s="99" t="s">
+      <c r="J8" s="88" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="83"/>
-      <c r="B9" s="86"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="92"/>
+      <c r="A9" s="92"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="101"/>
       <c r="F9" s="45">
         <v>2</v>
       </c>
@@ -2292,14 +2292,14 @@
       <c r="I9" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="J9" s="100"/>
+      <c r="J9" s="89"/>
     </row>
     <row r="10" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="84"/>
-      <c r="B10" s="87"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="93"/>
+      <c r="A10" s="93"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="102"/>
       <c r="F10" s="45">
         <v>3</v>
       </c>
@@ -2307,25 +2307,25 @@
         <v>62</v>
       </c>
       <c r="H10" s="32"/>
-      <c r="I10" s="98" t="s">
+      <c r="I10" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="J10" s="101"/>
+      <c r="J10" s="90"/>
     </row>
     <row r="11" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="82">
+      <c r="A11" s="91">
         <v>1</v>
       </c>
-      <c r="B11" s="85" t="s">
+      <c r="B11" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="85" t="s">
+      <c r="C11" s="94" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="88" t="s">
+      <c r="D11" s="97" t="s">
         <v>79</v>
       </c>
-      <c r="E11" s="91" t="s">
+      <c r="E11" s="100" t="s">
         <v>59</v>
       </c>
       <c r="F11" s="45">
@@ -2335,19 +2335,19 @@
         <v>73</v>
       </c>
       <c r="H11" s="39"/>
-      <c r="I11" s="97" t="s">
+      <c r="I11" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="99" t="s">
-        <v>83</v>
+      <c r="J11" s="88" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="83"/>
-      <c r="B12" s="86"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="92"/>
+      <c r="A12" s="92"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="101"/>
       <c r="F12" s="45">
         <v>2</v>
       </c>
@@ -2358,14 +2358,14 @@
       <c r="I12" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="J12" s="100"/>
+      <c r="J12" s="89"/>
     </row>
     <row r="13" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="84"/>
-      <c r="B13" s="87"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="93"/>
+      <c r="A13" s="93"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="102"/>
       <c r="F13" s="45">
         <v>3</v>
       </c>
@@ -2373,25 +2373,25 @@
         <v>62</v>
       </c>
       <c r="H13" s="32"/>
-      <c r="I13" s="98" t="s">
+      <c r="I13" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="J13" s="101"/>
+      <c r="J13" s="90"/>
     </row>
     <row r="14" spans="1:10" s="44" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="82">
+      <c r="A14" s="91">
         <v>1</v>
       </c>
-      <c r="B14" s="85" t="s">
+      <c r="B14" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="85" t="s">
+      <c r="C14" s="94" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="88" t="s">
+      <c r="D14" s="97" t="s">
         <v>80</v>
       </c>
-      <c r="E14" s="91" t="s">
+      <c r="E14" s="100" t="s">
         <v>59</v>
       </c>
       <c r="F14" s="45">
@@ -2401,19 +2401,19 @@
         <v>73</v>
       </c>
       <c r="H14" s="39"/>
-      <c r="I14" s="97" t="s">
+      <c r="I14" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="J14" s="99" t="s">
+      <c r="J14" s="88" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="83"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="92"/>
+      <c r="A15" s="92"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="101"/>
       <c r="F15" s="45">
         <v>2</v>
       </c>
@@ -2424,14 +2424,14 @@
       <c r="I15" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="J15" s="100"/>
+      <c r="J15" s="89"/>
     </row>
     <row r="16" spans="1:10" s="44" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="84"/>
-      <c r="B16" s="87"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="93"/>
+      <c r="A16" s="93"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="102"/>
       <c r="F16" s="45">
         <v>3</v>
       </c>
@@ -2439,13 +2439,23 @@
         <v>62</v>
       </c>
       <c r="H16" s="32"/>
-      <c r="I16" s="104" t="s">
+      <c r="I16" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="J16" s="101"/>
+      <c r="J16" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="B5:B7"/>
     <mergeCell ref="J5:J7"/>
     <mergeCell ref="J8:J10"/>
     <mergeCell ref="J11:J13"/>
@@ -2455,13 +2465,6 @@
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="D14:D16"/>
     <mergeCell ref="E14:E16"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="B5:B7"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="C11:C13"/>
@@ -2469,9 +2472,6 @@
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
